--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value276.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value276.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6281162379385739</v>
+        <v>1.601781964302063</v>
       </c>
       <c r="B1">
-        <v>1.206269785443565</v>
+        <v>1.670974373817444</v>
       </c>
       <c r="C1">
-        <v>2.567416414556394</v>
+        <v>1.74342405796051</v>
       </c>
       <c r="D1">
-        <v>2.948179006538313</v>
+        <v>2.353389978408813</v>
       </c>
       <c r="E1">
-        <v>1.504961214118616</v>
+        <v>3.929531335830688</v>
       </c>
     </row>
   </sheetData>
